--- a/data/trans_bre/P24_2_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P24_2_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,8 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +544,16 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +580,32 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +620,8 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +636,52 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,52</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>13,26</t>
+          <t>17,46</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>15,65</t>
+          <t>25,86</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>15,61</t>
+          <t>13,85</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>337,91%</t>
+          <t>16,8</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
+          <t>26,87%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>523,05%</t>
-        </is>
-      </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>152,79%</t>
         </is>
       </c>
     </row>
@@ -668,42 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 12,6</t>
+          <t>-7,64; 8,52</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,1; 23,13</t>
+          <t>8,09; 34,07</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,05; 25,52</t>
+          <t>14,08; 38,59</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>9,14; 25,34</t>
+          <t>5,74; 26,44</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>-2,86; 33,88</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
+      <c r="I5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I5" s="2" t="inlineStr">
+      <c r="J5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="J5" s="2" t="inlineStr">
+      <c r="K5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-29,58; 1276,35</t>
         </is>
       </c>
     </row>
@@ -720,42 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,17</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-2,34</t>
+          <t>-14,67</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,01</t>
+          <t>0,89</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,14</t>
+          <t>3,66</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>30,59%</t>
+          <t>-13,16</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-17,75%</t>
+          <t>12,32%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>25,13%</t>
+          <t>-67,63%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>25,41%</t>
+          <t>9,45%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>45,54%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-66,31%</t>
         </is>
       </c>
     </row>
@@ -768,42 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,32; 6,95</t>
+          <t>-9,61; 10,24</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-32,59; 8,74</t>
+          <t>-46,77; 3,04</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-7,67; 10,4</t>
+          <t>-11,73; 11,44</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-7,32; 10,9</t>
+          <t>-8,1; 14,35</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-79,16; —</t>
+          <t>-44,73; 3,63</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-94,92; 263,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-56,49; 307,29</t>
+          <t>-100,0; 53,78</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-55,39; 339,48</t>
+          <t>-74,73; 402,77</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-62,4; 629,48</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 72,44</t>
         </is>
       </c>
     </row>
@@ -820,42 +876,52 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,29</t>
+          <t>2,84</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>8,12</t>
+          <t>9,13</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,01</t>
+          <t>-2,68</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>7,35</t>
+          <t>6,83</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-12,08%</t>
+          <t>1,72</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>132,6%</t>
+          <t>53,12%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-6,54%</t>
+          <t>128,53%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>99,81%</t>
+          <t>-16,11%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>85,08%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>10,37%</t>
         </is>
       </c>
     </row>
@@ -868,42 +934,52 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-14,26; 5,53</t>
+          <t>-5,78; 10,89</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,17; 15,23</t>
+          <t>-1,33; 18,96</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-10,39; 7,39</t>
+          <t>-14,86; 9,51</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 14,81</t>
+          <t>-4,68; 15,89</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-71,11; 98,93</t>
+          <t>-12,31; 17,81</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-8,22; 446,69</t>
+          <t>-61,84; 802,75</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-47,03; 71,13</t>
+          <t>-28,12; 725,01</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-10,75; 380,91</t>
+          <t>-61,8; 112,28</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-41,49; 563,48</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-52,34; 213,83</t>
         </is>
       </c>
     </row>
@@ -920,42 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,57</t>
+          <t>6,35</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,58</t>
+          <t>5,74</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,61</t>
+          <t>10,23</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>11,43</t>
+          <t>12,27</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>30,1%</t>
+          <t>7,44</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>52,61%</t>
+          <t>99,13%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>40,9%</t>
+          <t>55,14%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>362,64%</t>
+          <t>97,15%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>318,57%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>66,11%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1054,52 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 10,04</t>
+          <t>-1,41; 15,85</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 11,68</t>
+          <t>-4,49; 15,17</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 13,22</t>
+          <t>0,14; 21,09</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,54; 17,86</t>
+          <t>4,18; 20,6</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-32,96; 216,74</t>
+          <t>-2,74; 17,97</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-21,35; 207,46</t>
+          <t>-27,9; 609,43</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-22,31; 181,13</t>
+          <t>-29,21; 262,2</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>49,46; 1689,45</t>
+          <t>-5,93; 378,15</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>26,01; 1573,03</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-20,98; 257,58</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1116,52 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>6,23</t>
+          <t>4,29</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>6,92</t>
+          <t>4,37</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>8,92</t>
+          <t>12,1</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>16,84</t>
+          <t>15,36</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>99,66%</t>
+          <t>7,85</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>102,97%</t>
+          <t>61,66%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>85,95%</t>
+          <t>47,82%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>383,38%</t>
+          <t>137,94%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>573,06%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>131,09%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1174,52 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 13,89</t>
+          <t>-4,61; 16,47</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 16,55</t>
+          <t>-6,42; 16,05</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 19,25</t>
+          <t>-0,02; 26,72</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>8,12; 26,77</t>
+          <t>4,82; 26,94</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-23,64; 495,24</t>
+          <t>-2,06; 18,99</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-14,42; 463,81</t>
+          <t>-58,63; 588,66</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-15,31; 291,92</t>
+          <t>-49,66; 318,86</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>76,51; 1808,73</t>
+          <t>-5,95; 622,32</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>29,53; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-35,99; 802,15</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1236,52 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>9,56</t>
+          <t>11,31</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>10,07</t>
+          <t>17,64</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>5,18</t>
+          <t>3,36</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2,22</t>
+          <t>5,71</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>391,28%</t>
+          <t>15,19</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>351,19%</t>
+          <t>467,24%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>88,33%</t>
+          <t>774,21%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>32,56%</t>
+          <t>28,0%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>112,7%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>156,66%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1294,52 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3,27; 18,74</t>
+          <t>1,49; 26,33</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,72; 17,98</t>
+          <t>5,22; 33,27</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 13,26</t>
+          <t>-10,7; 18,06</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-6,59; 10,72</t>
+          <t>-4,8; 17,35</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-23,23; —</t>
+          <t>-2,97; 42,86</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-37,81; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-44,01; 492,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-60,85; 434,34</t>
+          <t>-61,65; 477,82</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-74,96; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-59,53; —</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1356,52 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>3,57</t>
+          <t>4,07</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>6,5</t>
+          <t>5,62</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>5,38</t>
+          <t>7,74</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>9,18</t>
+          <t>9,57</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>58,59%</t>
+          <t>5,57</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>98,55%</t>
+          <t>75,59%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>56,91%</t>
+          <t>59,3%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>187,45%</t>
+          <t>79,05%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>202,14%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>42,8%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1414,59 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,15; 6,57</t>
+          <t>-0,11; 7,78</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,59; 10,12</t>
+          <t>-2,92; 10,97</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,75; 9,37</t>
+          <t>2,75; 12,69</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>6,05; 12,68</t>
+          <t>5,32; 14,16</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,12; 139,95</t>
+          <t>-3,27; 13,49</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>5,04; 204,59</t>
+          <t>-2,56; 209,61</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>13,95; 122,7</t>
+          <t>-24,42; 173,84</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>92,01; 369,97</t>
+          <t>18,67; 172,58</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>75,95; 457,22</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-23,12; 139,07</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1312,10 +1475,10 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
